--- a/docs/tp/Clients/Clients - Contatti.xlsx
+++ b/docs/tp/Clients/Clients - Contatti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\Clients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\Clients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF550E-D90B-4EBA-A8FA-3343D25F13FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C6B52-7F37-4726-8BCC-6DD92E472514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="77">
   <si>
     <t>Design</t>
   </si>
@@ -231,6 +231,39 @@
   </si>
   <si>
     <t>Matrix Web : Creazione_Contatto_Verifica la modifica: PEC</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica l'eliminazione del Fisso</t>
+  </si>
+  <si>
+    <t>Ricerca dello stesso cliente &gt; tab: Dettaglio Anagrafica &gt; subtab: Contatti &gt; dal Contatto creato &gt; menu(tre puntini) &gt; Elimina contatto</t>
+  </si>
+  <si>
+    <t>Verifica che il contatto non sia più presente</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica l'eliminazione del Cellulare</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica l'eliminazione del Fax</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica l'eliminazione dell'Email</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica l'eliminazione del Sito Web</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica l'eliminazione del Numero Verde</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica l'eliminazione del Fax Verde</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica l'eliminazione del Ufficio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica l'eliminazione della PEC</t>
   </si>
 </sst>
 </file>
@@ -659,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,13 +842,13 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -841,13 +874,13 @@
     </row>
     <row r="6" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -873,13 +906,13 @@
     </row>
     <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>19</v>
@@ -905,13 +938,13 @@
     </row>
     <row r="8" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
@@ -937,13 +970,13 @@
     </row>
     <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
@@ -969,13 +1002,13 @@
     </row>
     <row r="10" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
@@ -1001,13 +1034,13 @@
     </row>
     <row r="11" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -1033,13 +1066,13 @@
     </row>
     <row r="12" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>19</v>
@@ -1065,13 +1098,13 @@
     </row>
     <row r="13" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>19</v>
@@ -1097,13 +1130,13 @@
     </row>
     <row r="14" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>19</v>
@@ -1129,13 +1162,13 @@
     </row>
     <row r="15" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
@@ -1161,7 +1194,7 @@
     </row>
     <row r="16" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>24</v>
@@ -1193,13 +1226,13 @@
     </row>
     <row r="17" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>19</v>
@@ -1225,13 +1258,13 @@
     </row>
     <row r="18" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1257,13 +1290,13 @@
     </row>
     <row r="19" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1289,13 +1322,13 @@
     </row>
     <row r="20" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>19</v>
@@ -1321,13 +1354,13 @@
     </row>
     <row r="21" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
@@ -1353,13 +1386,13 @@
     </row>
     <row r="22" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -1385,13 +1418,13 @@
     </row>
     <row r="23" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
@@ -1417,13 +1450,13 @@
     </row>
     <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>19</v>
@@ -1449,13 +1482,13 @@
     </row>
     <row r="25" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>19</v>
@@ -1481,13 +1514,13 @@
     </row>
     <row r="26" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -1513,13 +1546,13 @@
     </row>
     <row r="27" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -1545,7 +1578,7 @@
     </row>
     <row r="28" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -1572,6 +1605,294 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/docs/tp/Clients/Clients - Contatti.xlsx
+++ b/docs/tp/Clients/Clients - Contatti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\Clients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C6B52-7F37-4726-8BCC-6DD92E472514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95300EA4-4096-4D06-9084-2EE1A6A43A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
